--- a/Team-Data/2010-11/6-28-2010-11.xlsx
+++ b/Team-Data/2010-11/6-28-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.531</v>
+        <v>0.537</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -687,7 +754,7 @@
         <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
         <v>6.1</v>
@@ -696,25 +763,25 @@
         <v>17.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="U2" t="n">
         <v>22</v>
@@ -723,25 +790,25 @@
         <v>13.6</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -750,10 +817,10 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -765,7 +832,7 @@
         <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
@@ -783,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -792,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
         <v>12</v>
@@ -804,22 +871,22 @@
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY2" t="n">
         <v>5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -878,7 +945,7 @@
         <v>13.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O3" t="n">
         <v>17.8</v>
@@ -887,7 +954,7 @@
         <v>23.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>7.8</v>
@@ -902,10 +969,10 @@
         <v>23.4</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>4.2</v>
@@ -914,25 +981,25 @@
         <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA3" t="n">
         <v>20.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG3" t="n">
         <v>6</v>
@@ -962,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -1001,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="BC3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
         <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>0.42</v>
+        <v>0.415</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
         <v>4.8</v>
@@ -1060,7 +1127,7 @@
         <v>14.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O4" t="n">
         <v>18.4</v>
@@ -1069,16 +1136,16 @@
         <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U4" t="n">
         <v>21.1</v>
@@ -1093,7 +1160,7 @@
         <v>5.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
         <v>20</v>
@@ -1102,10 +1169,10 @@
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1120,7 +1187,7 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1147,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>22</v>
@@ -1162,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW4" t="n">
         <v>28</v>
@@ -1174,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
         <v>62</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.765</v>
+        <v>0.756</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,43 +1297,43 @@
         <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.462</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
         <v>17.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
         <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
         <v>22.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.2</v>
@@ -1278,16 +1345,16 @@
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
         <v>20.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1305,16 +1372,16 @@
         <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
         <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1329,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>7</v>
@@ -1347,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="AW5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1356,7 +1423,7 @@
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>63</v>
       </c>
       <c r="G6" t="n">
-        <v>0.222</v>
+        <v>0.232</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1421,7 +1488,7 @@
         <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N6" t="n">
         <v>0.342</v>
@@ -1430,13 +1497,13 @@
         <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R6" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S6" t="n">
         <v>29.9</v>
@@ -1445,13 +1512,13 @@
         <v>40.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
         <v>14.2</v>
       </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X6" t="n">
         <v>4.2</v>
@@ -1469,7 +1536,7 @@
         <v>95.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1502,16 +1569,16 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1520,16 +1587,16 @@
         <v>21</v>
       </c>
       <c r="AT6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU6" t="n">
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,10 +1661,10 @@
         <v>37.4</v>
       </c>
       <c r="J7" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L7" t="n">
         <v>7.9</v>
@@ -1606,16 +1673,16 @@
         <v>21.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O7" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P7" t="n">
         <v>22.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R7" t="n">
         <v>9.5</v>
@@ -1630,10 +1697,10 @@
         <v>23.8</v>
       </c>
       <c r="V7" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1645,13 +1712,13 @@
         <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB7" t="n">
         <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1669,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1687,10 +1754,10 @@
         <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ7" t="n">
         <v>8</v>
@@ -1699,13 +1766,13 @@
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
@@ -1714,7 +1781,7 @@
         <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1776,7 +1843,7 @@
         <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.476</v>
@@ -1788,16 +1855,16 @@
         <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.39</v>
+        <v>0.388</v>
       </c>
       <c r="O8" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="P8" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R8" t="n">
         <v>9.6</v>
@@ -1806,7 +1873,7 @@
         <v>32.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.1</v>
@@ -1824,16 +1891,16 @@
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1851,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
         <v>17</v>
@@ -1878,19 +1945,19 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>11</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,28 +2025,28 @@
         <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.46</v>
       </c>
       <c r="L9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M9" t="n">
         <v>15.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O9" t="n">
         <v>16.7</v>
       </c>
       <c r="P9" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="R9" t="n">
         <v>11.4</v>
@@ -1994,7 +2061,7 @@
         <v>21.1</v>
       </c>
       <c r="V9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
         <v>7.3</v>
@@ -2003,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z9" t="n">
         <v>19.9</v>
@@ -2030,22 +2097,22 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
         <v>6</v>
@@ -2054,7 +2121,7 @@
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ9" t="n">
         <v>27</v>
@@ -2072,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="AV9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2087,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="BA9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
         <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>0.432</v>
+        <v>0.439</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
@@ -2158,10 +2225,10 @@
         <v>15.7</v>
       </c>
       <c r="P10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
@@ -2182,22 +2249,22 @@
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
         <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
         <v>18.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2266,10 +2333,10 @@
         <v>6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
         <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" t="n">
-        <v>0.538</v>
+        <v>0.524</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O11" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="P11" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.799</v>
+        <v>0.801</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S11" t="n">
         <v>31.1</v>
       </c>
       <c r="T11" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
         <v>23.8</v>
@@ -2373,25 +2440,25 @@
         <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.6</v>
+        <v>105.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -2412,13 +2479,13 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2430,16 +2497,16 @@
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV11" t="n">
         <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX11" t="n">
         <v>19</v>
@@ -2448,10 +2515,10 @@
         <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
       </c>
       <c r="F12" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="n">
-        <v>0.457</v>
+        <v>0.451</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2507,13 +2574,13 @@
         <v>82.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
         <v>7.1</v>
       </c>
       <c r="M12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N12" t="n">
         <v>0.354</v>
@@ -2525,22 +2592,22 @@
         <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>19.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2558,10 +2625,10 @@
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2618,7 +2685,7 @@
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
@@ -2639,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="BC12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="n">
         <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2689,7 +2756,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
@@ -2704,10 +2771,10 @@
         <v>18.9</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
@@ -2716,7 +2783,7 @@
         <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U13" t="n">
         <v>22.1</v>
@@ -2740,10 +2807,10 @@
         <v>22.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2767,7 +2834,7 @@
         <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
         <v>14</v>
@@ -2779,7 +2846,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
         <v>4</v>
@@ -2794,7 +2861,7 @@
         <v>15</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -2806,7 +2873,7 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2868,10 +2935,10 @@
         <v>38.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L14" t="n">
         <v>6.4</v>
@@ -2880,19 +2947,19 @@
         <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O14" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P14" t="n">
         <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R14" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S14" t="n">
         <v>31.9</v>
@@ -2910,22 +2977,22 @@
         <v>7.3</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>20.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
@@ -2964,16 +3031,16 @@
         <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>13</v>
       </c>
       <c r="AV14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW14" t="n">
         <v>14</v>
@@ -2994,10 +3061,10 @@
         <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
         <v>46</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3062,28 +3129,28 @@
         <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O15" t="n">
         <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T15" t="n">
         <v>41</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>14</v>
@@ -3095,10 +3162,10 @@
         <v>5.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA15" t="n">
         <v>21.4</v>
@@ -3107,13 +3174,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
         <v>11</v>
@@ -3122,7 +3189,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
@@ -3140,13 +3207,13 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3164,7 +3231,7 @@
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.713</v>
+        <v>0.707</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>76.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.482</v>
+        <v>0.481</v>
       </c>
       <c r="L16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M16" t="n">
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O16" t="n">
         <v>21.5</v>
@@ -3253,19 +3320,19 @@
         <v>27.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V16" t="n">
         <v>13.9</v>
@@ -3286,13 +3353,13 @@
         <v>21.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.4</v>
+        <v>102.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3334,22 +3401,22 @@
         <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV16" t="n">
         <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX16" t="n">
         <v>9</v>
@@ -3358,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.432</v>
+        <v>0.427</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3426,7 +3493,7 @@
         <v>17.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
         <v>17.4</v>
@@ -3435,7 +3502,7 @@
         <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R17" t="n">
         <v>10.5</v>
@@ -3444,16 +3511,16 @@
         <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
@@ -3462,10 +3529,10 @@
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB17" t="n">
         <v>91.90000000000001</v>
@@ -3477,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>12</v>
@@ -3510,16 +3577,16 @@
         <v>27</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
         <v>18</v>
@@ -3531,16 +3598,16 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
         <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3549,7 +3616,7 @@
         <v>30</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>0.21</v>
+        <v>0.207</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
         <v>85.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3620,10 +3687,10 @@
         <v>0.768</v>
       </c>
       <c r="R18" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S18" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T18" t="n">
         <v>44.4</v>
@@ -3632,7 +3699,7 @@
         <v>20.1</v>
       </c>
       <c r="V18" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
         <v>7.2</v>
@@ -3644,16 +3711,16 @@
         <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA18" t="n">
         <v>20.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3689,10 +3756,10 @@
         <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>13</v>
@@ -3707,16 +3774,16 @@
         <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>21</v>
@@ -3725,7 +3792,7 @@
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>58</v>
       </c>
       <c r="G19" t="n">
-        <v>0.284</v>
+        <v>0.293</v>
       </c>
       <c r="H19" t="n">
         <v>48.8</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
         <v>81</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
@@ -3790,7 +3857,7 @@
         <v>16.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
         <v>17.4</v>
@@ -3805,16 +3872,16 @@
         <v>11.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T19" t="n">
         <v>40.8</v>
       </c>
       <c r="U19" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V19" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W19" t="n">
         <v>5.6</v>
@@ -3832,10 +3899,10 @@
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -3850,7 +3917,7 @@
         <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI19" t="n">
         <v>27</v>
@@ -3871,7 +3938,7 @@
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3889,7 +3956,7 @@
         <v>17</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
         <v>14</v>
@@ -3898,10 +3965,10 @@
         <v>30</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
         <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.556</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3972,10 +4039,10 @@
         <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P20" t="n">
         <v>23.1</v>
@@ -3984,10 +4051,10 @@
         <v>0.765</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
         <v>40.1</v>
@@ -3996,22 +4063,22 @@
         <v>20.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>4.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB20" t="n">
         <v>94.90000000000001</v>
@@ -4023,19 +4090,19 @@
         <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4053,10 +4120,10 @@
         <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
         <v>15</v>
@@ -4068,10 +4135,10 @@
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4086,13 +4153,13 @@
         <v>17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.506</v>
+        <v>0.512</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4145,10 +4212,10 @@
         <v>83.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L21" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M21" t="n">
         <v>25.4</v>
@@ -4157,10 +4224,10 @@
         <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P21" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.8090000000000001</v>
@@ -4169,37 +4236,37 @@
         <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
         <v>13.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
         <v>20.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4214,7 +4281,7 @@
         <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
@@ -4223,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>4</v>
       </c>
       <c r="AP21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="n">
         <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H22" t="n">
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M22" t="n">
         <v>17.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O22" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="R22" t="n">
         <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T22" t="n">
         <v>42.8</v>
@@ -4363,7 +4430,7 @@
         <v>14.1</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>5.9</v>
@@ -4372,7 +4439,7 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA22" t="n">
         <v>21.5</v>
@@ -4381,7 +4448,7 @@
         <v>104.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4414,7 +4481,7 @@
         <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,25 +4496,25 @@
         <v>15</v>
       </c>
       <c r="AS22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
         <v>6</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4509,34 +4576,34 @@
         <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
       </c>
       <c r="M23" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O23" t="n">
         <v>17.7</v>
       </c>
       <c r="P23" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.694</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>20</v>
@@ -4560,10 +4627,10 @@
         <v>21.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4587,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,19 +4666,19 @@
         <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
@@ -4635,13 +4702,13 @@
         <v>10</v>
       </c>
       <c r="BA23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC23" t="n">
         <v>5</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>18</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>6</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" t="n">
         <v>41</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4691,7 +4758,7 @@
         <v>82.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L24" t="n">
         <v>5.4</v>
@@ -4700,34 +4767,34 @@
         <v>15.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R24" t="n">
         <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U24" t="n">
         <v>22.7</v>
       </c>
       <c r="V24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
         <v>4.3</v>
@@ -4742,34 +4809,34 @@
         <v>18.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>4</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4781,13 +4848,13 @@
         <v>15</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR24" t="n">
         <v>20</v>
@@ -4805,25 +4872,25 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
         <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -4852,13 +4919,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" t="n">
         <v>0.488</v>
@@ -4870,7 +4937,7 @@
         <v>39.3</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
@@ -4879,34 +4946,34 @@
         <v>8.5</v>
       </c>
       <c r="M25" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P25" t="n">
         <v>23.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W25" t="n">
         <v>6.6</v>
@@ -4915,22 +4982,22 @@
         <v>4.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4975,31 +5042,31 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX25" t="n">
         <v>22</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" t="n">
         <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.575</v>
+        <v>0.585</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>80.2</v>
+        <v>80.5</v>
       </c>
       <c r="K26" t="n">
         <v>0.447</v>
@@ -5064,28 +5131,28 @@
         <v>18.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.806</v>
+        <v>0.804</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="T26" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V26" t="n">
         <v>13</v>
@@ -5106,13 +5173,13 @@
         <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
@@ -5127,25 +5194,25 @@
         <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5154,19 +5221,19 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
         <v>16</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
@@ -5181,13 +5248,13 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
         <v>24</v>
       </c>
       <c r="BC26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
         <v>58</v>
       </c>
       <c r="G27" t="n">
-        <v>0.284</v>
+        <v>0.293</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5249,16 +5316,16 @@
         <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q27" t="n">
         <v>0.734</v>
       </c>
       <c r="R27" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S27" t="n">
         <v>30.8</v>
@@ -5270,7 +5337,7 @@
         <v>20.4</v>
       </c>
       <c r="V27" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W27" t="n">
         <v>7.4</v>
@@ -5279,19 +5346,19 @@
         <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z27" t="n">
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -5327,10 +5394,10 @@
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
@@ -5345,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="AU27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
@@ -5360,10 +5427,10 @@
         <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -5398,22 +5465,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
         <v>80.8</v>
@@ -5422,46 +5489,46 @@
         <v>0.475</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.396</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P28" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T28" t="n">
         <v>41.9</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V28" t="n">
         <v>13.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
         <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
         <v>19</v>
@@ -5470,10 +5537,10 @@
         <v>20.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5488,10 +5555,10 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ28" t="n">
         <v>16</v>
@@ -5500,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>7</v>
@@ -5509,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AQ28" t="n">
         <v>14</v>
@@ -5521,10 +5588,10 @@
         <v>23</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5533,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
         <v>18</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" t="n">
-        <v>0.272</v>
+        <v>0.268</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
       </c>
       <c r="I29" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L29" t="n">
         <v>4.2</v>
@@ -5625,7 +5692,7 @@
         <v>11.7</v>
       </c>
       <c r="S29" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T29" t="n">
         <v>40.3</v>
@@ -5643,13 +5710,13 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB29" t="n">
         <v>99.09999999999999</v>
@@ -5670,13 +5737,13 @@
         <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>8</v>
@@ -5694,10 +5761,10 @@
         <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR29" t="n">
         <v>8</v>
@@ -5706,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>14</v>
@@ -5715,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
         <v>26</v>
@@ -5724,7 +5791,7 @@
         <v>23</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA29" t="n">
         <v>26</v>
@@ -5733,7 +5800,7 @@
         <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" t="n">
         <v>39</v>
       </c>
       <c r="F30" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G30" t="n">
-        <v>0.488</v>
+        <v>0.476</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P30" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T30" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="U30" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5825,40 +5892,40 @@
         <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>9</v>
@@ -5870,7 +5937,7 @@
         <v>22</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5900,16 +5967,16 @@
         <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="n">
         <v>23</v>
       </c>
       <c r="F31" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
         <v>0.443</v>
@@ -5974,70 +6041,70 @@
         <v>14.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O31" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S31" t="n">
         <v>29</v>
       </c>
       <c r="T31" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U31" t="n">
         <v>19.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
         <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.1</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
@@ -6046,22 +6113,22 @@
         <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
         <v>16</v>
       </c>
       <c r="AP31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>3</v>
@@ -6070,13 +6137,13 @@
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
         <v>4</v>
@@ -6085,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>6-28-2010-11</t>
+          <t>2011-06-28</t>
         </is>
       </c>
     </row>
